--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>sever</t>
+  </si>
+  <si>
+    <t>sever - longtable</t>
+  </si>
+  <si>
+    <t>schneider</t>
+  </si>
+  <si>
+    <t>schneider tabs</t>
+  </si>
+  <si>
+    <t>schneider images + text</t>
+  </si>
+  <si>
+    <t>tiraz + submission</t>
+  </si>
+  <si>
+    <t>Funta + Mako lit</t>
+  </si>
+  <si>
+    <t>Sever lit</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F12" si="0">D5-C5</f>
+        <f t="shared" ref="F5:F22" si="0">D5-C5</f>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="H5" s="7"/>
@@ -705,8 +726,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.89930555555555547</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -720,10 +740,22 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>41986</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333326</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="9"/>
@@ -737,9 +769,19 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9"/>
@@ -753,9 +795,19 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9"/>
@@ -769,9 +821,18 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9"/>
@@ -784,10 +845,22 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>41987</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9"/>
@@ -801,9 +874,19 @@
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -817,9 +900,19 @@
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -833,9 +926,19 @@
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="3">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9"/>
@@ -849,9 +952,19 @@
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.513888888888884E-2</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9"/>
@@ -865,9 +978,19 @@
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333336E-2</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Sever lit</t>
+  </si>
+  <si>
+    <t>funta úpravy</t>
+  </si>
+  <si>
+    <t>tiraz úprava</t>
+  </si>
+  <si>
+    <t>schneider lit</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F22" si="0">D5-C5</f>
+        <f t="shared" ref="F5:F25" si="0">D5-C5</f>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="H5" s="7"/>
@@ -1003,10 +1012,22 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>41988</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4305555555555691E-2</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1020,9 +1041,19 @@
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9"/>
@@ -1036,9 +1067,19 @@
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
@@ -1052,7 +1093,9 @@
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>0.98263888888888884</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
       <c r="H26" s="7"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>schneider lit</t>
+  </si>
+  <si>
+    <t>nahrazen výraz shadow eco</t>
+  </si>
+  <si>
+    <t>schneider - nahrazni shadow + nazev</t>
+  </si>
+  <si>
+    <t>schneider - odstranění textu</t>
+  </si>
+  <si>
+    <t>schneider - tab číslování</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +478,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.140625" style="1"/>
@@ -1126,10 +1138,22 @@
       <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="2">
+        <v>41990</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" s="3"/>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
@@ -1143,8 +1167,15 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="H29" s="7"/>
       <c r="I29" s="12"/>
@@ -1159,8 +1190,15 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="H30" s="7"/>
       <c r="I30" s="12"/>
@@ -1175,8 +1213,15 @@
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
